--- a/Is Reiki really real/Reiki T-test.xlsx
+++ b/Is Reiki really real/Reiki T-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\Data Analysis\Is Reiki really real\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC91E05-FAC9-42A3-AC01-97060A28797B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671446D3-D90A-4517-886C-A7D49B9FEC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BF7C8534-5E67-4146-A01A-E06A1367616F}"/>
   </bookViews>
@@ -197,7 +197,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -324,14 +324,8 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -339,13 +333,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -359,12 +347,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,7 +690,7 @@
   <dimension ref="B1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="G18" sqref="G18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,52 +710,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -770,16 +770,16 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="K4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5">
@@ -794,12 +794,12 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -814,18 +814,18 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -842,22 +842,22 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>0.57392740041976276</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>0.23713468582313904</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>0.35720471286221628</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <v>8.6619687991148414E-2</v>
       </c>
     </row>
@@ -874,22 +874,22 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>6.007785525574575E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>9.202803859286901E-2</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>1.1906146753747548E-2</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <v>2.723559076587264E-2</v>
       </c>
     </row>
@@ -906,13 +906,13 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <v>20</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>20</v>
       </c>
       <c r="K9" t="s">
@@ -938,14 +938,14 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="K10" s="20" t="s">
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="K10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L10">
@@ -965,13 +965,13 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <v>35</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="11"/>
       <c r="K11" t="s">
         <v>16</v>
       </c>
@@ -992,17 +992,17 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>3.8619323769648148</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="9"/>
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>6.116439794483373</v>
       </c>
     </row>
@@ -1019,17 +1019,17 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>2.2508141048850354E-4</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="9"/>
       <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>3.4257078768036219E-7</v>
       </c>
     </row>
@@ -1046,16 +1046,16 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="9">
         <v>1.6882977141168172</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="7">
         <v>1.6923603090303456</v>
       </c>
     </row>
@@ -1072,16 +1072,16 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="9">
         <v>4.5016282097700702E-4</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="14">
         <v>6.8514157536072396E-7</v>
       </c>
     </row>
@@ -1098,16 +1098,16 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="10">
         <v>2.028094000980452</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="13">
         <v>2.0345152974493397</v>
       </c>
     </row>
@@ -1138,14 +1138,14 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -1160,12 +1160,12 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -1180,10 +1180,10 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="19">
         <v>6.8500000000000001E-7</v>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -1238,381 +1238,381 @@
     <row r="24" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <f>LOG(B4, 10)</f>
         <v>0.77815125038364352</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <f>LOG(C4)</f>
         <v>0.47712125471966244</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <f t="shared" ref="D29:E29" si="0">LOG(D4)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <f t="shared" ref="B30:B48" si="1">LOG(B5, 10)</f>
         <v>0.30102999566398114</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <f t="shared" ref="C30:E30" si="2">LOG(C5)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <f t="shared" si="1"/>
         <v>0.30102999566398114</v>
       </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
-        <f t="shared" ref="C31:E31" si="3">LOG(D6)</f>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" ref="D31" si="3">LOG(D6)</f>
         <v>0.47712125471966244</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <f t="shared" si="1"/>
         <v>0.95424250943932487</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f t="shared" ref="C32:E32" si="4">LOG(C7)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <f t="shared" si="4"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="C33" s="10">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <f t="shared" ref="C33:E33" si="5">LOG(D8)</f>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" ref="D33" si="5">LOG(D8)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E33" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <f t="shared" ref="C34:E34" si="6">LOG(C9)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <f t="shared" si="6"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <f t="shared" si="6"/>
         <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <f t="shared" si="1"/>
         <v>0.60205999132796229</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <f t="shared" ref="C35:E35" si="7">LOG(C10)</f>
         <v>0</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <f t="shared" si="7"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <f t="shared" si="1"/>
         <v>0.69897000433601875</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <f t="shared" ref="C36:E36" si="8">LOG(C11)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <f t="shared" si="8"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <f t="shared" si="1"/>
         <v>0.30102999566398114</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <f t="shared" ref="C37:E37" si="9">LOG(C12)</f>
         <v>0.3010299956639812</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <f t="shared" si="9"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <f t="shared" si="1"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="C38" s="10">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
-        <f t="shared" ref="C38:E38" si="10">LOG(D13)</f>
-        <v>0.3010299956639812</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" ref="D38" si="10">LOG(D13)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="E38" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <f t="shared" si="1"/>
         <v>0.69897000433601875</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <f t="shared" ref="C39:E39" si="11">LOG(C14)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <f t="shared" si="11"/>
         <v>0.47712125471966244</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10">
-        <f t="shared" ref="C40:E40" si="12">LOG(D15)</f>
+      <c r="B40" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" ref="D40" si="12">LOG(D15)</f>
         <v>0.17609125905568124</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <f t="shared" si="1"/>
         <v>0.77815125038364352</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <f t="shared" ref="C41:E41" si="13">LOG(C16)</f>
         <v>0.6020599913279624</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <f t="shared" si="13"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <f t="shared" si="1"/>
         <v>0.77815125038364352</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <f t="shared" ref="C42:E42" si="14">LOG(C17)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <f t="shared" si="14"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <f t="shared" si="14"/>
         <v>0.3010299956639812</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+      <c r="B43" s="8">
         <f t="shared" si="1"/>
         <v>0.60205999132796229</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <f t="shared" ref="C43:E43" si="15">LOG(C18)</f>
         <v>0.6020599913279624</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <f t="shared" si="15"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <f t="shared" si="1"/>
         <v>0.60205999132796229</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <f t="shared" ref="C44:E44" si="16">LOG(C19)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <f t="shared" si="16"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10">
+      <c r="B45" s="8">
         <f t="shared" si="1"/>
         <v>0.8450980400142567</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <f t="shared" ref="C45:E45" si="17">LOG(C20)</f>
         <v>0.77815125038364363</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <f t="shared" si="17"/>
         <v>0.6020599913279624</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <f t="shared" si="17"/>
         <v>0.47712125471966244</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <f t="shared" si="1"/>
         <v>0.30102999566398114</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <f t="shared" ref="C46:E46" si="18">LOG(C21)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <f t="shared" si="18"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="10">
+      <c r="B47" s="8">
         <f t="shared" si="1"/>
         <v>0.60205999132796229</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <f t="shared" ref="C47:E47" si="19">LOG(C22)</f>
         <v>0.47712125471966244</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <f t="shared" si="19"/>
         <v>0.3010299956639812</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <f t="shared" si="19"/>
         <v>0.17609125905568124</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="10">
+      <c r="B48" s="8">
         <f t="shared" si="1"/>
         <v>0.90308998699194343</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <f t="shared" ref="C48:E48" si="20">LOG(C23)</f>
         <v>0.90308998699194354</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <f t="shared" si="20"/>
         <v>0.54406804435027567</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <f t="shared" si="20"/>
         <v>0.47712125471966244</v>
       </c>
@@ -1633,14 +1633,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:I5"/>
     <mergeCell ref="K4:M5"/>
     <mergeCell ref="B26:E27"/>
     <mergeCell ref="G18:L19"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
